--- a/Team-Data/2013-14/2-27-2013-14.xlsx
+++ b/Team-Data/2013-14/2-27-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>-0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>16</v>
@@ -789,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -953,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -962,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -974,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>27</v>
@@ -986,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.482</v>
+        <v>0.473</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M4" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R4" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T4" t="n">
         <v>38.9</v>
@@ -1096,31 +1163,31 @@
         <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,13 +1196,13 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
@@ -1144,16 +1211,16 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1299,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1308,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1905,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.439</v>
+        <v>0.446</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.719</v>
       </c>
       <c r="R9" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
         <v>33</v>
@@ -1991,13 +2058,13 @@
         <v>45.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.8</v>
@@ -2012,19 +2079,19 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2033,7 +2100,7 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2042,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2063,28 +2130,28 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2266,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>15</v>
@@ -2275,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,19 +2753,19 @@
         <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
         <v>18.4</v>
@@ -2707,7 +2774,7 @@
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
@@ -2719,7 +2786,7 @@
         <v>45.7</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>15.4</v>
@@ -2728,25 +2795,25 @@
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2764,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2773,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
@@ -2800,22 +2867,22 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
       </c>
       <c r="AX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA13" t="n">
         <v>5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3231,7 @@
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
@@ -3367,7 +3434,7 @@
         <v>28</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -3396,67 +3463,67 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -3468,25 +3535,25 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3501,10 +3568,10 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3531,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3549,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.193</v>
+        <v>0.196</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.426</v>
       </c>
       <c r="L18" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
         <v>20.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.751</v>
@@ -3623,16 +3690,16 @@
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
         <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>6.8</v>
@@ -3647,16 +3714,16 @@
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB18" t="n">
         <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3686,16 +3753,16 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3707,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3865,7 +3932,7 @@
         <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4089,13 +4156,13 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB20" t="n">
         <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.362</v>
+        <v>0.368</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
         <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q21" t="n">
         <v>0.748</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
         <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
         <v>13.1</v>
@@ -4196,25 +4263,25 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,10 +4311,10 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>26</v>
@@ -4262,22 +4329,22 @@
         <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4387,13 +4454,13 @@
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -4402,7 +4469,7 @@
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4602,7 +4669,7 @@
         <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4760,10 +4827,10 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4775,7 +4842,7 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4942,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
@@ -5607,16 +5674,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.363</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0.775</v>
@@ -5625,40 +5692,40 @@
         <v>11.8</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,19 +5737,19 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5694,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5706,10 +5773,10 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5721,16 +5788,16 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5882,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>84.90000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L31" t="n">
         <v>7.8</v>
@@ -5974,55 +6041,55 @@
         <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
         <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
         <v>23.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6052,25 +6119,25 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6082,22 +6149,22 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-27-2013-14</t>
+          <t>2014-02-27</t>
         </is>
       </c>
     </row>
